--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185C4A3-EB9D-4862-914D-13F36327D8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45D5823-8061-4DEF-B49E-95F3E61D1955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
   <si>
     <t>Complemento</t>
   </si>
@@ -323,9 +323,6 @@
     <t>SACO PLASTICO - 60X90</t>
   </si>
   <si>
-    <t>SACOLA PLASTICA - 15CMX20CM</t>
-  </si>
-  <si>
     <t>S050017</t>
   </si>
   <si>
@@ -494,12 +491,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -560,12 +551,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
     <t>QUADRO BRANCO - 1,20x0,90</t>
   </si>
   <si>
@@ -591,6 +576,39 @@
   </si>
   <si>
     <t>BISCOITO - ROSQUINHA</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC C/10</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>SACOLA PLASTICA - 25X30</t>
   </si>
 </sst>
 </file>
@@ -673,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -690,12 +708,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF00B0F0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1027,1138 +1069,1421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:C100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="4">
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="4">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="4">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="B28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="4">
+        <v>182</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="4">
         <v>903</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="4">
+        <v>182</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="4">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="4">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="4">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="4">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="4">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="D98" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="4">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="4">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="4">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="4">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="4">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="4">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="4">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="4">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="4">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="4">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" s="4">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C100" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C91" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C100">
-      <sortCondition ref="A1:A91"/>
+  <autoFilter ref="A1:D98" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
+      <sortCondition ref="A1:A89"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1 C1:D1">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C100">
+  <conditionalFormatting sqref="A2:D88 A90:D98 B89:D89">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A89))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C11:C100 C7:C9" numberStoredAsText="1"/>
+    <ignoredError sqref="D7:D9 D50:D98 D11:D48" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45D5823-8061-4DEF-B49E-95F3E61D1955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28FB052-9E41-43B4-8EF7-51F73D996BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="195">
   <si>
     <t>Complemento</t>
   </si>
@@ -609,6 +609,21 @@
   </si>
   <si>
     <t>SACOLA PLASTICA - 25X30</t>
+  </si>
+  <si>
+    <t>ADOÇANTE - 100ML</t>
+  </si>
+  <si>
+    <t>S030004</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S150037</t>
   </si>
 </sst>
 </file>
@@ -728,11 +743,8 @@
     </dxf>
     <dxf>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
-          <color rgb="FF00B0F0"/>
+          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1069,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,189 +1125,189 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>131</v>
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="4">
-        <v>831</v>
+        <v>136</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D11" s="4">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4">
-        <v>104</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D14" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>182</v>
@@ -1304,82 +1316,82 @@
         <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D18" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>134</v>
+        <v>19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
+        <v>139</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>182</v>
@@ -1388,12 +1400,12 @@
         <v>21</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>182</v>
@@ -1402,68 +1414,68 @@
         <v>21</v>
       </c>
       <c r="D23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>134</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="4">
-        <v>52</v>
+        <v>142</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>182</v>
@@ -1472,26 +1484,26 @@
         <v>104</v>
       </c>
       <c r="D28" s="4">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4">
-        <v>101</v>
+        <v>903</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>185</v>
@@ -1500,46 +1512,46 @@
         <v>28</v>
       </c>
       <c r="D30" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1547,41 +1559,41 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>134</v>
+        <v>32</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1589,55 +1601,55 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>147</v>
+        <v>36</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1645,21 +1657,21 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>182</v>
@@ -1668,12 +1680,12 @@
         <v>42</v>
       </c>
       <c r="D42" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>182</v>
@@ -1682,12 +1694,12 @@
         <v>42</v>
       </c>
       <c r="D43" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>182</v>
@@ -1696,40 +1708,40 @@
         <v>42</v>
       </c>
       <c r="D44" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4">
-        <v>471</v>
+        <v>898</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="D46" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>182</v>
@@ -1738,46 +1750,46 @@
         <v>47</v>
       </c>
       <c r="D47" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>134</v>
+        <v>47</v>
+      </c>
+      <c r="D48" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1785,27 +1797,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4">
         <v>80</v>
@@ -1813,27 +1825,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1841,13 +1853,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1855,63 +1867,63 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D56" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>183</v>
@@ -1920,12 +1932,12 @@
         <v>111</v>
       </c>
       <c r="D60" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>183</v>
@@ -1934,26 +1946,26 @@
         <v>111</v>
       </c>
       <c r="D61" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D62" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>182</v>
@@ -1961,13 +1973,13 @@
       <c r="C63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>153</v>
+      <c r="D63" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>182</v>
@@ -1976,46 +1988,46 @@
         <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>134</v>
@@ -2023,105 +2035,105 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="4">
-        <v>819</v>
+        <v>157</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D70" s="4">
-        <v>750</v>
+        <v>820</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D71" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D72" s="4">
-        <v>395</v>
+        <v>750</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D73" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D74" s="4">
-        <v>87</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>182</v>
@@ -2130,222 +2142,222 @@
         <v>79</v>
       </c>
       <c r="D75" s="4">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D76" s="4">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D77" s="4">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D78" s="4">
-        <v>994</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D79" s="4">
-        <v>695</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>134</v>
+        <v>84</v>
+      </c>
+      <c r="D80" s="4">
+        <v>994</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>134</v>
+        <v>87</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="4">
-        <v>107</v>
+        <v>171</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="4">
-        <v>918</v>
+        <v>163</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D86" s="4">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D87" s="4">
-        <v>163</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D88" s="4">
-        <v>799</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D89" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D90" s="4">
-        <v>569</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>188</v>
@@ -2354,136 +2366,164 @@
         <v>94</v>
       </c>
       <c r="D91" s="4">
-        <v>762</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D92" s="4">
-        <v>211</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>134</v>
+        <v>94</v>
+      </c>
+      <c r="D93" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>134</v>
+        <v>98</v>
+      </c>
+      <c r="D94" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D98" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
-      <sortCondition ref="A1:A89"/>
+  <autoFilter ref="A1:D100" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D100">
+      <sortCondition ref="A1:A91"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1 C1:D1">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D88 A90:D98 B89:D89">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+  <conditionalFormatting sqref="A2:D2 A4:D66 A68:D100">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$E1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
+  <conditionalFormatting sqref="A67:D67">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A89))&gt;0</formula>
+      <formula>LEN(TRIM(A67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D7:D9 D50:D98 D11:D48" numberStoredAsText="1"/>
+    <ignoredError sqref="D8:D10 D68:D100 D12:D49 D51:D66" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28FB052-9E41-43B4-8EF7-51F73D996BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAEC4A2-6F05-433E-8A92-24EDEF9972A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="194">
   <si>
     <t>Complemento</t>
   </si>
@@ -407,12 +407,6 @@
     <t>S030001</t>
   </si>
   <si>
-    <t>BOM AR - 360ML</t>
-  </si>
-  <si>
-    <t>S010066</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
@@ -446,15 +440,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>BAND-AID - 500 UND</t>
-  </si>
-  <si>
-    <t>S150156</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
     <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
   </si>
   <si>
@@ -624,6 +609,18 @@
   </si>
   <si>
     <t>S150037</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
+  </si>
+  <si>
+    <t>S010012</t>
   </si>
 </sst>
 </file>
@@ -731,16 +728,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -785,9 +773,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -825,7 +813,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -931,7 +919,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1073,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1114,7 +1102,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>121</v>
@@ -1125,16 +1113,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,7 +1130,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>102</v>
@@ -1156,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1170,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1184,7 +1172,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>100</v>
@@ -1195,338 +1183,338 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>137</v>
+        <v>172</v>
+      </c>
+      <c r="D10" s="4">
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
-        <v>831</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>1046</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D16" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4">
-        <v>20</v>
+        <v>134</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>134</v>
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4</v>
+        <v>137</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>134</v>
+        <v>104</v>
+      </c>
+      <c r="D26" s="4">
+        <v>904</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D27" s="4">
-        <v>52</v>
+        <v>903</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D28" s="4">
-        <v>904</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4">
-        <v>903</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="4">
-        <v>101</v>
+        <v>191</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="D31" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1534,7 +1522,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1545,13 +1533,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1562,7 +1550,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1573,16 +1561,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,7 +1578,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1604,7 +1592,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1615,30 +1603,30 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>38</v>
@@ -1660,7 +1648,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1674,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
@@ -1688,7 +1676,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>42</v>
@@ -1702,7 +1690,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1716,7 +1704,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1727,13 +1715,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" s="4">
         <v>471</v>
@@ -1744,7 +1732,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1758,7 +1746,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>47</v>
@@ -1769,27 +1757,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1800,7 +1788,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>50</v>
@@ -1814,7 +1802,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>52</v>
@@ -1828,7 +1816,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>54</v>
@@ -1842,7 +1830,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>56</v>
@@ -1856,7 +1844,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>107</v>
@@ -1870,7 +1858,7 @@
         <v>108</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>109</v>
@@ -1884,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>58</v>
@@ -1898,7 +1886,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -1912,7 +1900,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1926,7 +1914,7 @@
         <v>110</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>111</v>
@@ -1940,7 +1928,7 @@
         <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>111</v>
@@ -1954,7 +1942,7 @@
         <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>111</v>
@@ -1968,7 +1956,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>64</v>
@@ -1979,30 +1967,30 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2010,7 +1998,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2021,16 +2009,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2038,7 +2026,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>68</v>
@@ -2049,16 +2037,16 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2066,7 +2054,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>70</v>
@@ -2080,7 +2068,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>70</v>
@@ -2094,7 +2082,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>73</v>
@@ -2108,7 +2096,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>75</v>
@@ -2122,7 +2110,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>77</v>
@@ -2136,7 +2124,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>79</v>
@@ -2150,7 +2138,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>79</v>
@@ -2164,7 +2152,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>79</v>
@@ -2175,10 +2163,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>82</v>
@@ -2189,10 +2177,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>82</v>
@@ -2206,7 +2194,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>84</v>
@@ -2220,7 +2208,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>84</v>
@@ -2231,16 +2219,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2248,7 +2236,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>87</v>
@@ -2259,30 +2247,30 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2290,7 +2278,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>89</v>
@@ -2304,7 +2292,7 @@
         <v>114</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>115</v>
@@ -2318,7 +2306,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>91</v>
@@ -2332,7 +2320,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>91</v>
@@ -2346,7 +2334,7 @@
         <v>93</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>91</v>
@@ -2357,10 +2345,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>94</v>
@@ -2374,7 +2362,7 @@
         <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>94</v>
@@ -2388,7 +2376,7 @@
         <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>94</v>
@@ -2402,7 +2390,7 @@
         <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>98</v>
@@ -2413,44 +2401,44 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,7 +2446,7 @@
         <v>116</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>117</v>
@@ -2472,7 +2460,7 @@
         <v>118</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>119</v>
@@ -2483,13 +2471,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2498,32 +2486,24 @@
   </sheetData>
   <autoFilter ref="A1:D100" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D100">
-      <sortCondition ref="A1:A91"/>
+      <sortCondition ref="A1:A100"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D66 A68:D100">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D10 A13:D100">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:D67">
+  <conditionalFormatting sqref="A11:D12">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A67))&gt;0</formula>
+      <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D8:D10 D68:D100 D12:D49 D51:D66" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAEC4A2-6F05-433E-8A92-24EDEF9972A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B254A4A-4AF6-4AC0-B131-BB7AFBE4AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -431,12 +431,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -621,6 +615,12 @@
   </si>
   <si>
     <t>S010012</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>121</v>
@@ -1113,16 +1113,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>102</v>
@@ -1144,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1158,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1172,7 +1172,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>100</v>
@@ -1186,7 +1186,7 @@
         <v>127</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>128</v>
@@ -1197,27 +1197,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1228,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1242,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1256,7 +1256,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1270,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1284,7 +1284,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1298,7 +1298,7 @@
         <v>122</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>123</v>
@@ -1312,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1326,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1368,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1379,10 +1379,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1396,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1407,16 +1407,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1438,7 +1438,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>104</v>
@@ -1452,7 +1452,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>104</v>
@@ -1466,7 +1466,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
@@ -1480,7 +1480,7 @@
         <v>124</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1561,16 +1561,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1592,7 +1592,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1603,30 +1603,30 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>38</v>
@@ -1648,7 +1648,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1662,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
@@ -1676,7 +1676,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>42</v>
@@ -1690,7 +1690,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1704,7 +1704,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1718,7 +1718,7 @@
         <v>125</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>126</v>
@@ -1732,7 +1732,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1746,7 +1746,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>47</v>
@@ -1757,27 +1757,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>50</v>
@@ -1802,7 +1802,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>52</v>
@@ -1816,7 +1816,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>54</v>
@@ -1830,7 +1830,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>56</v>
@@ -1844,7 +1844,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>107</v>
@@ -1858,7 +1858,7 @@
         <v>108</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>109</v>
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>58</v>
@@ -1886,7 +1886,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -1900,7 +1900,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1914,7 +1914,7 @@
         <v>110</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>111</v>
@@ -1928,7 +1928,7 @@
         <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>111</v>
@@ -1942,7 +1942,7 @@
         <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>111</v>
@@ -1956,7 +1956,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>64</v>
@@ -1967,30 +1967,30 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2009,16 +2009,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,7 +2026,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>68</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>70</v>
@@ -2068,7 +2068,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>70</v>
@@ -2082,7 +2082,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>73</v>
@@ -2096,7 +2096,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>75</v>
@@ -2110,7 +2110,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>77</v>
@@ -2124,7 +2124,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>79</v>
@@ -2138,7 +2138,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>79</v>
@@ -2152,7 +2152,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>79</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>82</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>82</v>
@@ -2194,7 +2194,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>84</v>
@@ -2208,7 +2208,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>84</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>87</v>
@@ -2247,30 +2247,30 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2278,7 +2278,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>89</v>
@@ -2292,7 +2292,7 @@
         <v>114</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>115</v>
@@ -2306,7 +2306,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>91</v>
@@ -2320,7 +2320,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>91</v>
@@ -2334,7 +2334,7 @@
         <v>93</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>91</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>94</v>
@@ -2362,7 +2362,7 @@
         <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>94</v>
@@ -2376,7 +2376,7 @@
         <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>94</v>
@@ -2390,7 +2390,7 @@
         <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>98</v>
@@ -2401,41 +2401,41 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>129</v>
@@ -2446,7 +2446,7 @@
         <v>116</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>117</v>
@@ -2460,7 +2460,7 @@
         <v>118</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>119</v>
@@ -2471,13 +2471,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2490,18 +2490,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D10 A13:D100">
+  <conditionalFormatting sqref="A2:D8 A10:D100">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:D12">
+  <conditionalFormatting sqref="A9:D9">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A11))&gt;0</formula>
+      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B254A4A-4AF6-4AC0-B131-BB7AFBE4AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2AA70-6519-4869-8163-D5B3498EB15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="195">
   <si>
     <t>Complemento</t>
   </si>
@@ -395,12 +395,6 @@
     <t>S150190</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010054</t>
-  </si>
-  <si>
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
@@ -542,9 +536,6 @@
     <t>S110037</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
@@ -621,6 +612,18 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
+  </si>
+  <si>
+    <t>S080015</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1071,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1099,13 +1111,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1113,16 +1125,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1142,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>102</v>
@@ -1144,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1158,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1172,7 +1184,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>100</v>
@@ -1183,41 +1195,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1228,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1242,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1256,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1270,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1284,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1295,13 +1307,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1312,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1326,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1337,16 +1349,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1368,7 +1380,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1379,10 +1391,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1396,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1407,16 +1419,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,7 +1436,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1438,7 +1450,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>104</v>
@@ -1452,7 +1464,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>104</v>
@@ -1466,7 +1478,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
@@ -1477,10 +1489,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1491,13 +1503,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1505,13 +1517,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1522,7 +1534,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1533,13 +1545,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1550,7 +1562,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1561,16 +1573,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1590,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1592,7 +1604,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1603,30 +1615,30 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,7 +1646,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>38</v>
@@ -1648,7 +1660,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1662,7 +1674,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
@@ -1676,7 +1688,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>42</v>
@@ -1690,7 +1702,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1704,7 +1716,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1715,13 +1727,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D46" s="4">
         <v>471</v>
@@ -1732,7 +1744,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1746,7 +1758,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>47</v>
@@ -1757,27 +1769,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1788,7 +1800,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>50</v>
@@ -1802,7 +1814,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>52</v>
@@ -1816,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>54</v>
@@ -1830,7 +1842,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>56</v>
@@ -1844,7 +1856,7 @@
         <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>107</v>
@@ -1858,7 +1870,7 @@
         <v>108</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>109</v>
@@ -1872,7 +1884,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>58</v>
@@ -1886,7 +1898,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -1900,7 +1912,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1914,7 +1926,7 @@
         <v>110</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>111</v>
@@ -1928,7 +1940,7 @@
         <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>111</v>
@@ -1942,7 +1954,7 @@
         <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>111</v>
@@ -1956,7 +1968,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>64</v>
@@ -1967,30 +1979,30 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,7 +2010,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2009,16 +2021,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>68</v>
@@ -2037,16 +2049,16 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,7 +2066,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>70</v>
@@ -2068,7 +2080,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>70</v>
@@ -2082,7 +2094,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>73</v>
@@ -2096,7 +2108,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>75</v>
@@ -2110,7 +2122,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>77</v>
@@ -2124,7 +2136,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>79</v>
@@ -2138,7 +2150,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>79</v>
@@ -2152,7 +2164,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>79</v>
@@ -2163,10 +2175,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>82</v>
@@ -2177,10 +2189,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>82</v>
@@ -2194,7 +2206,7 @@
         <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>84</v>
@@ -2208,7 +2220,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>84</v>
@@ -2219,16 +2231,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,7 +2248,7 @@
         <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>87</v>
@@ -2247,30 +2259,30 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2278,7 +2290,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>89</v>
@@ -2292,7 +2304,7 @@
         <v>114</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>115</v>
@@ -2306,7 +2318,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>91</v>
@@ -2320,7 +2332,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>91</v>
@@ -2334,7 +2346,7 @@
         <v>93</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>91</v>
@@ -2345,10 +2357,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>94</v>
@@ -2362,7 +2374,7 @@
         <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>94</v>
@@ -2376,7 +2388,7 @@
         <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>94</v>
@@ -2390,7 +2402,7 @@
         <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>98</v>
@@ -2401,44 +2413,44 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,7 +2458,7 @@
         <v>116</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>117</v>
@@ -2457,29 +2469,29 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D100" s="4">
+        <v>164</v>
+      </c>
+      <c r="D100" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2490,18 +2502,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D8 A10:D100">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D98">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9">
+  <conditionalFormatting sqref="A100:D100">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A100))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:D99">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
+      <formula>LEN(TRIM(A99))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2AA70-6519-4869-8163-D5B3498EB15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51849E76-D3FD-4BA8-8ACC-62C779B34CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -257,12 +257,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -624,6 +618,12 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -731,16 +731,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1083,9 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:D99"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1100,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1111,13 +1100,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1125,27 +1114,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1156,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1170,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1181,13 +1170,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1195,41 +1184,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1240,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1254,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1268,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1282,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1296,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1307,13 +1296,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1324,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1338,7 +1327,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1349,16 +1338,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,7 +1355,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1380,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1391,10 +1380,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1408,7 +1397,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1419,16 +1408,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,7 +1425,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1447,13 +1436,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" s="4">
         <v>904</v>
@@ -1461,13 +1450,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1478,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
@@ -1489,10 +1478,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1503,13 +1492,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1517,13 +1506,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1534,7 +1523,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1545,13 +1534,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1562,7 +1551,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1573,16 +1562,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,7 +1579,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1604,7 +1593,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1615,30 +1604,30 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>38</v>
@@ -1660,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>40</v>
@@ -1674,7 +1663,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
@@ -1688,7 +1677,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>42</v>
@@ -1702,7 +1691,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1716,7 +1705,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1727,83 +1716,83 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="D46" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="D47" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D48" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>128</v>
+        <v>47</v>
+      </c>
+      <c r="D49" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1811,27 +1800,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D52" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53" s="4">
         <v>80</v>
@@ -1839,27 +1828,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1867,13 +1856,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1881,237 +1870,237 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D62" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D63" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>144</v>
+      <c r="D64" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>128</v>
+        <v>66</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="4">
-        <v>211</v>
+        <v>182</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>128</v>
+        <v>68</v>
+      </c>
+      <c r="D69" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="4">
-        <v>820</v>
+        <v>146</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D72" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D73" s="4">
         <v>553</v>
@@ -2119,13 +2108,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D74" s="4">
         <v>395</v>
@@ -2133,13 +2122,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D75" s="4">
         <v>86</v>
@@ -2147,13 +2136,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D76" s="4">
         <v>87</v>
@@ -2161,13 +2150,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D77" s="4">
         <v>88</v>
@@ -2175,13 +2164,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D78" s="4">
         <v>55</v>
@@ -2189,13 +2178,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D79" s="4">
         <v>54</v>
@@ -2203,13 +2192,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D80" s="4">
         <v>994</v>
@@ -2217,13 +2206,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D81" s="4">
         <v>695</v>
@@ -2231,27 +2220,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2259,41 +2248,41 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D86" s="4">
         <v>107</v>
@@ -2301,13 +2290,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D87" s="4">
         <v>918</v>
@@ -2315,13 +2304,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D88" s="4">
         <v>170</v>
@@ -2329,13 +2318,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D89" s="4">
         <v>163</v>
@@ -2343,13 +2332,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D90" s="4">
         <v>799</v>
@@ -2357,13 +2346,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D91" s="4">
         <v>160</v>
@@ -2371,13 +2360,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D92" s="4">
         <v>569</v>
@@ -2385,13 +2374,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4">
         <v>762</v>
@@ -2399,13 +2388,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2413,55 +2402,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2469,27 +2458,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
@@ -2502,23 +2491,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D98">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D71 A73:D100">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:D100">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A100))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:D99">
+  <conditionalFormatting sqref="A72:D72">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A99))&gt;0</formula>
+      <formula>LEN(TRIM(A72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51849E76-D3FD-4BA8-8ACC-62C779B34CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9C685-0400-4E9D-9B6B-D0F75EEFD57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1089,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1100,13 +1102,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1114,27 +1116,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1145,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1159,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1170,13 +1172,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1184,41 +1186,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1229,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1243,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1257,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1271,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1285,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1296,13 +1298,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1313,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1327,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1338,16 +1340,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1369,7 +1371,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1380,10 +1382,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1397,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1408,16 +1410,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,7 +1427,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1436,13 +1438,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D26" s="4">
         <v>904</v>
@@ -1450,13 +1452,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1467,7 +1469,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
@@ -1478,10 +1480,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1492,13 +1494,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1506,13 +1508,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1523,7 +1525,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1534,13 +1536,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1551,7 +1553,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1562,16 +1564,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1593,7 +1595,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1604,55 +1606,55 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1660,13 +1662,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D42" s="4">
         <v>899</v>
@@ -1674,13 +1676,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="4">
         <v>896</v>
@@ -1688,13 +1690,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4">
         <v>900</v>
@@ -1702,13 +1704,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4">
         <v>898</v>
@@ -1716,13 +1718,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D46" s="4">
         <v>750</v>
@@ -1730,13 +1732,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D47" s="4">
         <v>471</v>
@@ -1744,13 +1746,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D48" s="4">
         <v>166</v>
@@ -1758,13 +1760,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4">
         <v>167</v>
@@ -1772,27 +1774,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1800,13 +1802,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1814,13 +1816,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D53" s="4">
         <v>80</v>
@@ -1828,13 +1830,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D54" s="4">
         <v>80</v>
@@ -1842,13 +1844,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1856,13 +1858,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1870,13 +1872,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1884,13 +1886,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D58" s="4">
         <v>40</v>
@@ -1898,13 +1900,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1912,13 +1914,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1926,13 +1928,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1940,13 +1942,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1954,13 +1956,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" s="4">
         <v>31</v>
@@ -1968,13 +1970,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D64" s="4">
         <v>2</v>
@@ -1982,41 +1984,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -2024,27 +2026,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D69" s="4">
         <v>211</v>
@@ -2052,27 +2054,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D71" s="4">
         <v>820</v>
@@ -2080,13 +2082,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="4">
         <v>819</v>
@@ -2094,13 +2096,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D73" s="4">
         <v>553</v>
@@ -2108,13 +2110,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D74" s="4">
         <v>395</v>
@@ -2122,13 +2124,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D75" s="4">
         <v>86</v>
@@ -2136,13 +2138,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="4">
         <v>87</v>
@@ -2150,13 +2152,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" s="4">
         <v>88</v>
@@ -2164,13 +2166,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="4">
         <v>55</v>
@@ -2178,13 +2180,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D79" s="4">
         <v>54</v>
@@ -2192,13 +2194,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="4">
         <v>994</v>
@@ -2206,13 +2208,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D81" s="4">
         <v>695</v>
@@ -2220,27 +2222,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2248,41 +2250,41 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D86" s="4">
         <v>107</v>
@@ -2290,13 +2292,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D87" s="4">
         <v>918</v>
@@ -2304,13 +2306,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D88" s="4">
         <v>170</v>
@@ -2318,13 +2320,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4">
         <v>163</v>
@@ -2332,13 +2334,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="4">
         <v>799</v>
@@ -2346,13 +2348,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="4">
         <v>160</v>
@@ -2360,13 +2362,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="4">
         <v>569</v>
@@ -2374,13 +2376,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="4">
         <v>762</v>
@@ -2388,13 +2390,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2402,55 +2404,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2458,27 +2460,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
@@ -2491,18 +2493,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D71 A73:D100">
+  <conditionalFormatting sqref="A2:D39 A41:D100">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:D72">
+  <conditionalFormatting sqref="A40:D40">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
+      <formula>LEN(TRIM(A40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9C685-0400-4E9D-9B6B-D0F75EEFD57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6CA8A-A50A-4E47-97FA-DB1B52625D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -356,12 +356,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
   </si>
   <si>
@@ -593,9 +587,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -624,6 +615,15 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1074,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1102,13 +1111,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1116,16 +1125,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,7 +1142,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>99</v>
@@ -1147,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1161,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1175,7 +1184,7 @@
         <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>97</v>
@@ -1186,41 +1195,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1231,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1245,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1259,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1273,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1287,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1298,13 +1307,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1315,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1329,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1340,16 +1349,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1371,7 +1380,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1382,10 +1391,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1399,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1410,16 +1419,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,7 +1436,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1441,7 +1450,7 @@
         <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>101</v>
@@ -1455,7 +1464,7 @@
         <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>101</v>
@@ -1469,7 +1478,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
@@ -1480,10 +1489,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1494,13 +1503,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1508,16 +1517,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,7 +1534,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1536,13 +1545,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1553,7 +1562,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1564,16 +1573,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1581,7 +1590,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1595,7 +1604,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1606,38 +1615,38 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1651,7 +1660,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>39</v>
@@ -1665,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>41</v>
@@ -1679,7 +1688,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1693,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>41</v>
@@ -1707,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>41</v>
@@ -1718,13 +1727,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D46" s="4">
         <v>750</v>
@@ -1732,13 +1741,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="4">
         <v>471</v>
@@ -1749,7 +1758,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>46</v>
@@ -1763,7 +1772,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>46</v>
@@ -1774,27 +1783,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1805,7 +1814,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>49</v>
@@ -1819,7 +1828,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>51</v>
@@ -1833,7 +1842,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>53</v>
@@ -1847,7 +1856,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>55</v>
@@ -1861,7 +1870,7 @@
         <v>103</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>104</v>
@@ -1872,16 +1881,16 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1889,7 +1898,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1903,7 +1912,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>59</v>
@@ -1917,7 +1926,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>61</v>
@@ -1928,13 +1937,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1942,13 +1951,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1956,13 +1965,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="4">
         <v>31</v>
@@ -1973,7 +1982,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>63</v>
@@ -1984,30 +1993,30 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2015,7 +2024,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>65</v>
@@ -2026,16 +2035,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2043,7 +2052,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>67</v>
@@ -2054,16 +2063,16 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2071,7 +2080,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>69</v>
@@ -2085,7 +2094,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>69</v>
@@ -2099,7 +2108,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>72</v>
@@ -2113,7 +2122,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>74</v>
@@ -2127,7 +2136,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>76</v>
@@ -2141,7 +2150,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>76</v>
@@ -2155,7 +2164,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>76</v>
@@ -2166,10 +2175,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>79</v>
@@ -2180,10 +2189,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>79</v>
@@ -2197,7 +2206,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>81</v>
@@ -2211,7 +2220,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>81</v>
@@ -2222,16 +2231,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,7 +2248,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>84</v>
@@ -2250,30 +2259,30 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,7 +2290,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>86</v>
@@ -2292,13 +2301,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D87" s="4">
         <v>918</v>
@@ -2309,7 +2318,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>88</v>
@@ -2323,7 +2332,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>88</v>
@@ -2337,7 +2346,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>88</v>
@@ -2348,10 +2357,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>91</v>
@@ -2365,7 +2374,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>91</v>
@@ -2379,7 +2388,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>91</v>
@@ -2393,7 +2402,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>95</v>
@@ -2404,55 +2413,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2460,27 +2469,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
@@ -2493,18 +2502,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D39 A41:D100">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D30 A32:D56 A58:D100">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:D40">
+  <conditionalFormatting sqref="A31:D31">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A31))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A40))&gt;0</formula>
+      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6CA8A-A50A-4E47-97FA-DB1B52625D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B63970-6A96-43E0-80AB-D41500752F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="192">
   <si>
     <t>Complemento</t>
   </si>
@@ -134,18 +134,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -428,12 +416,6 @@
     <t>S020089</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -524,9 +506,6 @@
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - ÚNICA</t>
-  </si>
-  <si>
     <t>S030006</t>
   </si>
   <si>
@@ -624,6 +603,18 @@
   </si>
   <si>
     <t>S010024</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -731,16 +722,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1083,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1111,13 +1093,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1125,27 +1107,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1156,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1170,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1181,13 +1163,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1195,41 +1177,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1240,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1254,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1268,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1282,7 +1264,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1296,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1307,13 +1289,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1324,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1338,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -1349,16 +1331,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1366,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -1380,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1391,10 +1373,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1408,7 +1390,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
@@ -1419,16 +1401,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,7 +1418,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1447,13 +1429,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4">
         <v>904</v>
@@ -1461,13 +1443,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1478,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
@@ -1489,10 +1471,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -1503,13 +1485,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1517,13 +1499,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1534,7 +1516,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1545,69 +1527,69 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>123</v>
+        <v>154</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1615,41 +1597,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D40" s="4">
         <v>1159</v>
@@ -1657,13 +1639,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1671,13 +1653,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D42" s="4">
         <v>899</v>
@@ -1685,13 +1667,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43" s="4">
         <v>896</v>
@@ -1699,13 +1681,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D44" s="4">
         <v>900</v>
@@ -1713,13 +1695,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D45" s="4">
         <v>898</v>
@@ -1727,13 +1709,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D46" s="4">
         <v>750</v>
@@ -1741,13 +1723,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D47" s="4">
         <v>471</v>
@@ -1755,13 +1737,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D48" s="4">
         <v>166</v>
@@ -1769,13 +1751,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D49" s="4">
         <v>167</v>
@@ -1783,27 +1765,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1811,13 +1793,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1825,13 +1807,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D53" s="4">
         <v>80</v>
@@ -1839,13 +1821,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4">
         <v>80</v>
@@ -1853,13 +1835,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1867,13 +1849,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1881,13 +1863,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D57" s="4">
         <v>1163</v>
@@ -1895,13 +1877,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D58" s="4">
         <v>40</v>
@@ -1909,13 +1891,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1923,13 +1905,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1937,13 +1919,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1951,13 +1933,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1965,13 +1947,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D63" s="4">
         <v>31</v>
@@ -1979,13 +1961,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D64" s="4">
         <v>2</v>
@@ -1993,41 +1975,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -2035,27 +2017,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D69" s="4">
         <v>211</v>
@@ -2063,27 +2045,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D71" s="4">
         <v>820</v>
@@ -2091,13 +2073,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D72" s="4">
         <v>819</v>
@@ -2105,13 +2087,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D73" s="4">
         <v>553</v>
@@ -2119,13 +2101,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D74" s="4">
         <v>395</v>
@@ -2133,13 +2115,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D75" s="4">
         <v>86</v>
@@ -2147,13 +2129,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D76" s="4">
         <v>87</v>
@@ -2161,13 +2143,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D77" s="4">
         <v>88</v>
@@ -2175,13 +2157,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D78" s="4">
         <v>55</v>
@@ -2189,13 +2171,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D79" s="4">
         <v>54</v>
@@ -2203,13 +2185,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D80" s="4">
         <v>994</v>
@@ -2217,13 +2199,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D81" s="4">
         <v>695</v>
@@ -2231,27 +2213,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2259,41 +2241,41 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D86" s="4">
         <v>107</v>
@@ -2301,13 +2283,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D87" s="4">
         <v>918</v>
@@ -2315,13 +2297,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D88" s="4">
         <v>170</v>
@@ -2329,13 +2311,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D89" s="4">
         <v>163</v>
@@ -2343,13 +2325,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D90" s="4">
         <v>799</v>
@@ -2357,13 +2339,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D91" s="4">
         <v>160</v>
@@ -2371,13 +2353,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D92" s="4">
         <v>569</v>
@@ -2385,13 +2367,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D93" s="4">
         <v>762</v>
@@ -2399,13 +2381,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2413,55 +2395,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2469,27 +2451,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
@@ -2502,23 +2484,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D30 A32:D56 A58:D100">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D32 A37:D100">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:D31">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
+  <conditionalFormatting sqref="A33:D36">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
+      <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B63970-6A96-43E0-80AB-D41500752F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17A37B-A7D1-4688-B10E-0EC5BBA3DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -344,18 +335,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -449,9 +431,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -615,6 +594,27 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1065,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1093,13 +1138,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1107,27 +1152,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1135,13 +1180,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>105</v>
@@ -1149,13 +1194,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>103</v>
@@ -1163,13 +1208,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1177,41 +1222,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1219,13 +1264,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>809</v>
@@ -1233,13 +1278,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D12" s="4">
         <v>1046</v>
@@ -1247,13 +1292,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>103</v>
@@ -1261,13 +1306,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4">
         <v>33</v>
@@ -1275,13 +1320,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D15" s="4">
         <v>31</v>
@@ -1289,13 +1334,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1303,13 +1348,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -1317,13 +1362,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1331,27 +1376,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -1359,13 +1404,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -1373,13 +1418,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
@@ -1387,13 +1432,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1401,27 +1446,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="4">
         <v>52</v>
@@ -1429,13 +1474,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4">
         <v>904</v>
@@ -1443,13 +1488,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1457,13 +1502,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D28" s="4">
         <v>101</v>
@@ -1471,13 +1516,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4">
         <v>100</v>
@@ -1485,13 +1530,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1499,13 +1544,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1513,13 +1558,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D32" s="4">
         <v>103</v>
@@ -1527,13 +1572,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1541,13 +1586,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1555,13 +1600,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1569,13 +1614,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1583,13 +1628,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1597,41 +1642,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="4">
         <v>1159</v>
@@ -1639,13 +1684,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1653,13 +1698,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D42" s="4">
         <v>899</v>
@@ -1667,13 +1712,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="4">
         <v>896</v>
@@ -1681,13 +1726,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4">
         <v>900</v>
@@ -1695,13 +1740,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4">
         <v>898</v>
@@ -1709,13 +1754,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D46" s="4">
         <v>750</v>
@@ -1723,13 +1768,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D47" s="4">
         <v>471</v>
@@ -1737,13 +1782,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D48" s="4">
         <v>166</v>
@@ -1751,13 +1796,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="4">
         <v>167</v>
@@ -1765,27 +1810,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1793,27 +1838,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4">
         <v>80</v>
@@ -1821,13 +1866,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D54" s="4">
         <v>80</v>
@@ -1835,13 +1880,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1849,13 +1894,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1863,13 +1908,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D57" s="4">
         <v>1163</v>
@@ -1877,13 +1922,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58" s="4">
         <v>40</v>
@@ -1891,13 +1936,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1905,13 +1950,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D60" s="4">
         <v>745</v>
@@ -1919,13 +1964,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1933,13 +1978,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1947,13 +1992,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D63" s="4">
         <v>31</v>
@@ -1961,13 +2006,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D64" s="4">
         <v>2</v>
@@ -1975,41 +2020,41 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -2017,27 +2062,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D69" s="4">
         <v>211</v>
@@ -2045,27 +2090,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" s="4">
         <v>820</v>
@@ -2073,13 +2118,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D72" s="4">
         <v>819</v>
@@ -2087,13 +2132,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D73" s="4">
         <v>553</v>
@@ -2101,13 +2146,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D74" s="4">
         <v>395</v>
@@ -2115,13 +2160,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D75" s="4">
         <v>86</v>
@@ -2129,13 +2174,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D76" s="4">
         <v>87</v>
@@ -2143,13 +2188,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D77" s="4">
         <v>88</v>
@@ -2157,13 +2202,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D78" s="4">
         <v>55</v>
@@ -2171,13 +2216,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D79" s="4">
         <v>54</v>
@@ -2185,13 +2230,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D80" s="4">
         <v>994</v>
@@ -2199,13 +2244,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D81" s="4">
         <v>695</v>
@@ -2213,27 +2258,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2241,41 +2286,41 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D86" s="4">
         <v>107</v>
@@ -2283,13 +2328,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D87" s="4">
         <v>918</v>
@@ -2297,13 +2342,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D88" s="4">
         <v>170</v>
@@ -2311,13 +2356,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D89" s="4">
         <v>163</v>
@@ -2325,13 +2370,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D90" s="4">
         <v>799</v>
@@ -2339,13 +2384,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D91" s="4">
         <v>160</v>
@@ -2353,13 +2398,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D92" s="4">
         <v>569</v>
@@ -2367,13 +2412,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D93" s="4">
         <v>762</v>
@@ -2381,13 +2426,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D94" s="4">
         <v>211</v>
@@ -2395,55 +2440,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2451,27 +2496,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
@@ -2484,18 +2529,43 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D32 A37:D100">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D4 A71:D100 A68:D69 A64:D66 B61:D63 A53:D60 A6:D51">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:D36">
+  <conditionalFormatting sqref="A70:D70">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:D67">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(B67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A63">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:D52">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A52))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:D5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
+      <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17A37B-A7D1-4688-B10E-0EC5BBA3DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC101A96-C3E0-428C-91E6-5BE6E4BCF966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -314,9 +314,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -602,19 +596,25 @@
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -722,25 +722,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1110,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1138,13 +1120,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1152,38 +1134,38 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1197,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1211,7 +1193,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>90</v>
@@ -1222,41 +1204,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1267,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1281,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1295,7 +1277,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1309,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1323,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1334,13 +1316,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1351,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1365,7 +1347,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1376,16 +1358,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,7 +1375,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1407,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1418,10 +1400,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1435,7 +1417,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1446,16 +1428,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
@@ -1474,13 +1456,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D26" s="4">
         <v>904</v>
@@ -1488,13 +1470,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1505,7 +1487,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1516,10 +1498,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>27</v>
@@ -1530,13 +1512,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1544,13 +1526,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1561,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
@@ -1572,13 +1554,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1586,13 +1568,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1600,13 +1582,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1614,13 +1596,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1631,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>31</v>
@@ -1642,44 +1624,44 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,7 +1669,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>34</v>
@@ -1701,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>36</v>
@@ -1715,7 +1697,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>36</v>
@@ -1729,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>36</v>
@@ -1743,7 +1725,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>36</v>
@@ -1754,13 +1736,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D46" s="4">
         <v>750</v>
@@ -1768,13 +1750,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="4">
         <v>471</v>
@@ -1785,7 +1767,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>41</v>
@@ -1799,7 +1781,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>41</v>
@@ -1810,27 +1792,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1838,10 +1820,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>43</v>
@@ -1855,7 +1837,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>45</v>
@@ -1869,7 +1851,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>47</v>
@@ -1883,7 +1865,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>49</v>
@@ -1894,13 +1876,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1908,13 +1890,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" s="4">
         <v>1163</v>
@@ -1925,7 +1907,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>51</v>
@@ -1939,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>53</v>
@@ -1953,7 +1935,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>55</v>
@@ -1964,13 +1946,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="D61" s="4">
         <v>33</v>
@@ -1978,13 +1960,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="D62" s="4">
         <v>32</v>
@@ -1992,13 +1974,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D63" s="4">
         <v>31</v>
@@ -2009,7 +1991,7 @@
         <v>56</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>57</v>
@@ -2020,38 +2002,38 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>58</v>
@@ -2062,16 +2044,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,7 +2061,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>60</v>
@@ -2090,13 +2072,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="4">
         <v>1167</v>
@@ -2107,7 +2089,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>62</v>
@@ -2121,7 +2103,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>62</v>
@@ -2135,7 +2117,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>65</v>
@@ -2149,7 +2131,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>67</v>
@@ -2163,7 +2145,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>69</v>
@@ -2177,7 +2159,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>69</v>
@@ -2191,7 +2173,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>69</v>
@@ -2202,10 +2184,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>72</v>
@@ -2216,10 +2198,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>72</v>
@@ -2233,7 +2215,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>74</v>
@@ -2247,7 +2229,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>74</v>
@@ -2258,16 +2240,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,7 +2257,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>77</v>
@@ -2286,30 +2268,30 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,7 +2299,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>79</v>
@@ -2328,13 +2310,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D87" s="4">
         <v>918</v>
@@ -2345,7 +2327,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>81</v>
@@ -2359,7 +2341,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>81</v>
@@ -2373,7 +2355,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>81</v>
@@ -2384,10 +2366,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>84</v>
@@ -2401,7 +2383,7 @@
         <v>85</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>84</v>
@@ -2415,7 +2397,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>84</v>
@@ -2429,7 +2411,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>88</v>
@@ -2440,55 +2422,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2496,27 +2478,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D100" s="5">
         <v>1</v>
@@ -2529,43 +2511,33 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="5" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D4 A71:D100 A68:D69 A64:D66 B61:D63 A53:D60 A6:D51">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+  <conditionalFormatting sqref="A2:D60 A64:D100">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:D70">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:D67">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(B67))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+  <conditionalFormatting sqref="A61:A63 C61:D63">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A67))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A63">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:D52">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A52))&gt;0</formula>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D5">
+  <conditionalFormatting sqref="B62">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A5))&gt;0</formula>
+      <formula>LEN(TRIM(B63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC101A96-C3E0-428C-91E6-5BE6E4BCF966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D41AA-3228-479F-87AC-727DC6ED7445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="190">
   <si>
     <t>Complemento</t>
   </si>
@@ -399,12 +399,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110018</t>
   </si>
   <si>
     <t>FITA DUPLA FACE - UNICA</t>
@@ -722,43 +716,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1090,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1123,7 +1081,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>102</v>
@@ -1134,24 +1092,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>91</v>
@@ -1162,10 +1120,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1179,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1193,7 +1151,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>90</v>
@@ -1207,7 +1165,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>109</v>
@@ -1218,13 +1176,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>111</v>
@@ -1232,13 +1190,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1249,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1263,7 +1221,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1277,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1291,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1305,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1319,7 +1277,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>104</v>
@@ -1333,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1347,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1361,7 +1319,7 @@
         <v>112</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>113</v>
@@ -1375,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1389,7 +1347,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1403,7 +1361,7 @@
         <v>114</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1417,7 +1375,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1431,7 +1389,7 @@
         <v>115</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>116</v>
@@ -1445,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
@@ -1459,7 +1417,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>93</v>
@@ -1473,7 +1431,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>93</v>
@@ -1487,7 +1445,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1501,7 +1459,7 @@
         <v>105</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>27</v>
@@ -1512,13 +1470,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1526,13 +1484,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1543,7 +1501,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
@@ -1554,13 +1512,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1568,13 +1526,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1582,13 +1540,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1596,13 +1554,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1613,7 +1571,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>31</v>
@@ -1627,7 +1585,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>118</v>
@@ -1638,209 +1596,209 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="D45" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="D46" s="4">
-        <v>750</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4">
-        <v>471</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="4">
-        <v>167</v>
+        <v>121</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>111</v>
+        <v>147</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" s="4">
         <v>80</v>
@@ -1848,27 +1806,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1876,72 +1834,72 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="D57" s="4">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D58" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D60" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,55 +1907,55 @@
         <v>188</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="D63" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="4">
-        <v>2</v>
+      <c r="D64" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,7 +1963,7 @@
         <v>124</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2016,408 +1974,408 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>127</v>
+        <v>58</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="D68" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D69" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="D70" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D71" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D72" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D73" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D74" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D75" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D76" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D77" s="4">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D78" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D79" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D80" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D81" s="4">
-        <v>695</v>
+        <v>130</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>111</v>
+        <v>77</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="D85" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D86" s="4">
-        <v>107</v>
+        <v>918</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D87" s="4">
-        <v>918</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D89" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D90" s="4">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D91" s="4">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D92" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D93" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D94" s="4">
-        <v>211</v>
+        <v>134</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,7 +2383,7 @@
         <v>135</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>136</v>
@@ -2439,105 +2397,71 @@
         <v>137</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" s="5">
+        <v>142</v>
+      </c>
+      <c r="D99" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D100" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D100">
-      <sortCondition ref="A1:A100"/>
+  <autoFilter ref="A1:D99" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
+      <sortCondition ref="A1:A99"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="5" priority="25">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D60 A64:D100">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A2:D99">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A63 C61:D63">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B62))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D41AA-3228-479F-87AC-727DC6ED7445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55068495-8CA5-440C-A2E8-3179BC6F7A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
   <si>
     <t>Complemento</t>
   </si>
@@ -332,15 +332,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -446,12 +440,6 @@
     <t>S020007</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>TINTA P/ CARIMBO 42 ML - AZUL - AZUL</t>
   </si>
   <si>
@@ -536,12 +524,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
   </si>
   <si>
@@ -609,6 +591,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1078,13 +1072,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1092,24 +1086,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>91</v>
@@ -1120,10 +1114,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1137,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1151,7 +1145,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>90</v>
@@ -1162,41 +1156,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>111</v>
+        <v>187</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1207,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1221,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1235,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1249,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1263,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1274,13 +1268,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1291,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1305,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1316,16 +1310,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1347,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1358,10 +1352,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1375,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1386,16 +1380,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,7 +1397,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
@@ -1417,7 +1411,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>93</v>
@@ -1431,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>93</v>
@@ -1445,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1456,10 +1450,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>27</v>
@@ -1470,13 +1464,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1484,13 +1478,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1501,7 +1495,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
@@ -1512,13 +1506,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1526,13 +1520,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1540,13 +1534,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1554,13 +1548,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1571,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>31</v>
@@ -1582,24 +1576,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>32</v>
@@ -1613,7 +1607,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
@@ -1627,7 +1621,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
@@ -1641,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>36</v>
@@ -1655,7 +1649,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>36</v>
@@ -1669,7 +1663,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>36</v>
@@ -1680,13 +1674,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1694,13 +1688,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4">
         <v>471</v>
@@ -1711,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>41</v>
@@ -1725,7 +1719,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>41</v>
@@ -1736,27 +1730,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1764,10 +1758,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>43</v>
@@ -1781,7 +1775,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>45</v>
@@ -1795,7 +1789,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>47</v>
@@ -1809,7 +1803,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1823,7 +1817,7 @@
         <v>95</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>96</v>
@@ -1834,16 +1828,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D56" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,7 +1845,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>51</v>
@@ -1865,7 +1859,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>53</v>
@@ -1879,7 +1873,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>55</v>
@@ -1890,13 +1884,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1904,13 +1898,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D61" s="4">
         <v>32</v>
@@ -1918,13 +1912,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D62" s="4">
         <v>31</v>
@@ -1935,7 +1929,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>57</v>
@@ -1946,38 +1940,38 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>58</v>
@@ -1988,16 +1982,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,7 +1999,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>60</v>
@@ -2016,13 +2010,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D69" s="4">
         <v>1167</v>
@@ -2033,7 +2027,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>62</v>
@@ -2047,7 +2041,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>62</v>
@@ -2061,7 +2055,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>65</v>
@@ -2075,7 +2069,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>67</v>
@@ -2089,7 +2083,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>69</v>
@@ -2103,7 +2097,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>69</v>
@@ -2117,7 +2111,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>69</v>
@@ -2128,10 +2122,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>72</v>
@@ -2142,10 +2136,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>72</v>
@@ -2159,7 +2153,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>74</v>
@@ -2173,7 +2167,7 @@
         <v>73</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>74</v>
@@ -2184,16 +2178,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,7 +2195,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>77</v>
@@ -2212,30 +2206,30 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,7 +2237,7 @@
         <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>79</v>
@@ -2254,16 +2248,16 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D86" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2271,7 +2265,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>81</v>
@@ -2285,7 +2279,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>81</v>
@@ -2299,7 +2293,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>81</v>
@@ -2310,10 +2304,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>84</v>
@@ -2327,7 +2321,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>84</v>
@@ -2341,7 +2335,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>84</v>
@@ -2355,7 +2349,7 @@
         <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>88</v>
@@ -2366,100 +2360,86 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D99" s="5">
+        <v>138</v>
+      </c>
+      <c r="D98" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D99" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
-      <sortCondition ref="A1:A99"/>
+  <autoFilter ref="A1:D98" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
+      <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D99">
+  <conditionalFormatting sqref="A2:D98">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55068495-8CA5-440C-A2E8-3179BC6F7A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDBE86-A738-46B6-8C4B-609EAA5FB4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -603,6 +597,12 @@
   </si>
   <si>
     <t>S080016</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1044,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1072,13 +1081,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1086,27 +1095,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1114,10 +1123,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1131,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1142,13 +1151,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1156,27 +1165,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1184,13 +1193,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="4">
         <v>831</v>
@@ -1201,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1215,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1229,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1243,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1257,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1268,13 +1277,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D16" s="4">
         <v>58</v>
@@ -1285,7 +1294,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1299,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1310,16 +1319,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,7 +1336,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
@@ -1341,7 +1350,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1352,10 +1361,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1369,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1380,16 +1389,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,7 +1406,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
@@ -1408,13 +1417,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D26" s="4">
         <v>904</v>
@@ -1422,13 +1431,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4">
         <v>903</v>
@@ -1439,7 +1448,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1450,10 +1459,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>27</v>
@@ -1464,13 +1473,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1478,13 +1487,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1495,7 +1504,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>29</v>
@@ -1506,13 +1515,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1520,13 +1529,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1534,13 +1543,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1548,13 +1557,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1565,7 +1574,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>31</v>
@@ -1576,24 +1585,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>32</v>
@@ -1607,7 +1616,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
@@ -1621,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
@@ -1635,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>36</v>
@@ -1649,7 +1658,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>36</v>
@@ -1663,7 +1672,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>36</v>
@@ -1674,13 +1683,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1688,13 +1697,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D46" s="4">
         <v>471</v>
@@ -1705,7 +1714,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>41</v>
@@ -1719,7 +1728,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>41</v>
@@ -1730,27 +1739,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1758,10 +1767,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>43</v>
@@ -1775,7 +1784,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>45</v>
@@ -1789,7 +1798,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>47</v>
@@ -1803,7 +1812,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1814,13 +1823,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1828,13 +1837,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D56" s="4">
         <v>1164</v>
@@ -1845,7 +1854,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>51</v>
@@ -1859,7 +1868,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>53</v>
@@ -1873,7 +1882,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>55</v>
@@ -1884,13 +1893,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="4">
         <v>33</v>
@@ -1898,13 +1907,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="4">
         <v>32</v>
@@ -1912,13 +1921,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="4">
         <v>31</v>
@@ -1929,7 +1938,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>57</v>
@@ -1940,69 +1949,69 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D68" s="4">
         <v>211</v>
@@ -2010,13 +2019,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="4">
         <v>1167</v>
@@ -2024,13 +2033,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D70" s="4">
         <v>820</v>
@@ -2038,13 +2047,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D71" s="4">
         <v>819</v>
@@ -2052,13 +2061,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D72" s="4">
         <v>553</v>
@@ -2066,13 +2075,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D73" s="4">
         <v>395</v>
@@ -2080,13 +2089,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D74" s="4">
         <v>86</v>
@@ -2094,13 +2103,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" s="4">
         <v>87</v>
@@ -2108,13 +2117,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="4">
         <v>88</v>
@@ -2122,13 +2131,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" s="4">
         <v>55</v>
@@ -2136,13 +2145,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78" s="4">
         <v>54</v>
@@ -2150,13 +2159,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D79" s="4">
         <v>994</v>
@@ -2164,13 +2173,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D80" s="4">
         <v>695</v>
@@ -2178,27 +2187,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2206,41 +2215,41 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D85" s="4">
         <v>107</v>
@@ -2248,13 +2257,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86" s="4">
         <v>986</v>
@@ -2262,13 +2271,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D87" s="4">
         <v>170</v>
@@ -2276,13 +2285,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D88" s="4">
         <v>163</v>
@@ -2290,13 +2299,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89" s="4">
         <v>799</v>
@@ -2304,13 +2313,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D90" s="4">
         <v>160</v>
@@ -2318,13 +2327,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91" s="4">
         <v>569</v>
@@ -2332,13 +2341,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D92" s="4">
         <v>762</v>
@@ -2346,13 +2355,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D93" s="4">
         <v>211</v>
@@ -2360,41 +2369,41 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2402,27 +2411,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -2435,13 +2444,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D98">
+  <conditionalFormatting sqref="A2:D65 A67:D98">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:D66">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDBE86-A738-46B6-8C4B-609EAA5FB4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B3367F-F66E-4996-A7B0-656B6BB8E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="184">
   <si>
     <t>Complemento</t>
   </si>
@@ -53,12 +53,6 @@
     <t>S010004</t>
   </si>
   <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
-  </si>
-  <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
   </si>
   <si>
@@ -456,12 +450,6 @@
   </si>
   <si>
     <t>S010087</t>
-  </si>
-  <si>
-    <t>S030006</t>
-  </si>
-  <si>
-    <t>BISCOITO - ROSQUINHA</t>
   </si>
   <si>
     <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
@@ -710,16 +698,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1051,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:D66"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" activeCellId="1" sqref="A6:XFD6 A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1081,13 +1060,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1095,27 +1074,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1123,10 +1102,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1137,100 +1116,100 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="4">
-        <v>53</v>
+        <v>104</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>181</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>1208</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4">
-        <v>831</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>809</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>1046</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1238,69 +1217,69 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4">
-        <v>20</v>
+        <v>108</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,69 +1287,69 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
+      <c r="D22" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,265 +1357,265 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="D24" s="4">
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4">
-        <v>52</v>
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4">
-        <v>904</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4">
-        <v>903</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="4">
-        <v>101</v>
+        <v>154</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="D29" s="4">
-        <v>100</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D31" s="4">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4">
-        <v>103</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" s="4">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="D35" s="4">
-        <v>1178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1179</v>
+        <v>113</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>116</v>
+        <v>32</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4">
-        <v>1162</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,363 +1623,363 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" s="4">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="D43" s="4">
-        <v>900</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4">
-        <v>898</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="D45" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="D46" s="4">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="4">
-        <v>166</v>
+        <v>116</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="D48" s="4">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>108</v>
+        <v>41</v>
+      </c>
+      <c r="D49" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D51" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D52" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D53" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="D56" s="4">
-        <v>1164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="4">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="4">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>120</v>
+        <v>183</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4">
-        <v>1181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2008,237 +1987,237 @@
         <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D68" s="4">
-        <v>211</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4">
-        <v>1167</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D70" s="4">
-        <v>820</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D71" s="4">
-        <v>819</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D72" s="4">
-        <v>553</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D73" s="4">
-        <v>395</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D74" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D75" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D76" s="4">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D77" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D78" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="4">
-        <v>994</v>
+        <v>125</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D80" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>136</v>
+        <v>76</v>
+      </c>
+      <c r="D83" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="D84" s="4">
+        <v>986</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,55 +2225,55 @@
         <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D85" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D86" s="4">
-        <v>986</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D87" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D88" s="4">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,27 +2281,27 @@
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D89" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D90" s="4">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,132 +2309,99 @@
         <v>84</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D91" s="4">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="4">
-        <v>762</v>
+        <v>129</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" s="4">
-        <v>211</v>
+        <v>131</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="4">
+        <v>135</v>
+      </c>
+      <c r="D96" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D98" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D98" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D98">
-      <sortCondition ref="A1:A98"/>
+  <autoFilter ref="A1:D96" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
+      <sortCondition ref="A1:A96"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D65 A67:D98">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D96">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D66">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B3367F-F66E-4996-A7B0-656B6BB8E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBC202-DD99-4962-8BBC-C29152644BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
   <si>
     <t>Complemento</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>S020025</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
     <t>S200035</t>
@@ -1030,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" activeCellId="1" sqref="A6:XFD6 A10:XFD10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1060,13 +1054,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1074,27 +1068,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1102,10 +1096,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1116,13 +1110,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1130,27 +1124,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1161,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1175,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1189,7 +1183,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1203,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1217,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1228,13 +1222,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1245,7 +1239,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1259,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1270,16 +1264,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,7 +1281,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1301,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1312,10 +1306,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1329,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1340,16 +1334,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,7 +1351,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1368,13 +1362,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1382,13 +1376,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4">
         <v>903</v>
@@ -1399,7 +1393,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1410,10 +1404,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1424,13 +1418,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1438,13 +1432,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1455,7 +1449,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>27</v>
@@ -1466,13 +1460,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1480,13 +1474,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1494,13 +1488,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1508,13 +1502,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1525,7 +1519,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>29</v>
@@ -1536,24 +1530,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>30</v>
@@ -1567,7 +1561,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1581,7 +1575,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>34</v>
@@ -1595,7 +1589,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
@@ -1609,7 +1603,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>34</v>
@@ -1623,7 +1617,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>34</v>
@@ -1634,13 +1628,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1648,13 +1642,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44" s="4">
         <v>471</v>
@@ -1665,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>39</v>
@@ -1679,7 +1673,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1690,27 +1684,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1718,10 +1712,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>41</v>
@@ -1735,7 +1729,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>43</v>
@@ -1749,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>45</v>
@@ -1763,7 +1757,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1774,13 +1768,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1788,13 +1782,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1805,7 +1799,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>49</v>
@@ -1819,7 +1813,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>51</v>
@@ -1833,7 +1827,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>53</v>
@@ -1844,13 +1838,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1858,13 +1852,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="4">
         <v>32</v>
@@ -1872,13 +1866,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="4">
         <v>31</v>
@@ -1889,7 +1883,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>55</v>
@@ -1900,41 +1894,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1942,16 +1936,16 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1959,7 +1953,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -1970,13 +1964,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1987,7 +1981,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>59</v>
@@ -2001,7 +1995,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>59</v>
@@ -2015,7 +2009,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>62</v>
@@ -2029,7 +2023,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>64</v>
@@ -2043,7 +2037,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>66</v>
@@ -2054,142 +2048,142 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D73" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D74" s="4">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D75" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D76" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="4">
-        <v>994</v>
+        <v>123</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D78" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>134</v>
+        <v>74</v>
+      </c>
+      <c r="D81" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="D82" s="4">
+        <v>986</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,55 +2191,55 @@
         <v>75</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D83" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D84" s="4">
-        <v>986</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D85" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D86" s="4">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,27 +2247,27 @@
         <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D87" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D88" s="4">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,117 +2275,89 @@
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D89" s="4">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="4">
-        <v>762</v>
+        <v>127</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="4">
-        <v>211</v>
+        <v>129</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" s="4">
+        <v>133</v>
+      </c>
+      <c r="D94" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D96" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
-      <sortCondition ref="A1:A96"/>
+  <autoFilter ref="A1:D94" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+      <sortCondition ref="A1:A94"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2399,7 +2365,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D96">
+  <conditionalFormatting sqref="A2:D94">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBC202-DD99-4962-8BBC-C29152644BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A99E50-F609-48D8-BC0E-30387BD6D39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
   <si>
     <t>Complemento</t>
   </si>
@@ -224,9 +224,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -585,6 +579,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -692,7 +689,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1027,7 +1033,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+      <selection activeCell="A70" sqref="A70:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1054,13 +1060,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1068,27 +1074,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1096,10 +1102,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1110,13 +1116,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1124,27 +1130,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1155,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1169,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1183,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1197,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1211,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1222,13 +1228,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1239,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1253,7 +1259,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1264,16 +1270,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,7 +1287,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1295,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1306,10 +1312,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1323,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1334,16 +1340,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,7 +1357,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1362,13 +1368,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1376,13 +1382,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4">
         <v>903</v>
@@ -1393,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1404,10 +1410,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1418,13 +1424,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1432,13 +1438,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1449,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>27</v>
@@ -1460,13 +1466,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1474,13 +1480,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1488,13 +1494,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1502,13 +1508,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1519,7 +1525,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>29</v>
@@ -1530,24 +1536,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>30</v>
@@ -1561,7 +1567,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1575,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>34</v>
@@ -1589,7 +1595,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
@@ -1603,7 +1609,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>34</v>
@@ -1617,7 +1623,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>34</v>
@@ -1628,13 +1634,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1642,13 +1648,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D44" s="4">
         <v>471</v>
@@ -1659,7 +1665,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>39</v>
@@ -1673,7 +1679,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1684,27 +1690,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1712,10 +1718,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>41</v>
@@ -1729,7 +1735,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>43</v>
@@ -1743,7 +1749,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>45</v>
@@ -1757,7 +1763,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1768,13 +1774,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1782,13 +1788,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1799,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>49</v>
@@ -1813,7 +1819,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>51</v>
@@ -1827,7 +1833,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>53</v>
@@ -1838,13 +1844,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1852,13 +1858,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="4">
         <v>32</v>
@@ -1866,13 +1872,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="4">
         <v>31</v>
@@ -1883,7 +1889,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>55</v>
@@ -1894,41 +1900,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1936,16 +1942,16 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -1964,13 +1970,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1981,7 +1987,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>59</v>
@@ -1995,7 +2001,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>59</v>
@@ -2006,27 +2012,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D70" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D71" s="4">
         <v>395</v>
@@ -2034,13 +2040,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2048,13 +2054,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="4">
         <v>55</v>
@@ -2062,13 +2068,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -2076,13 +2082,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" s="4">
         <v>994</v>
@@ -2090,13 +2096,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D76" s="4">
         <v>695</v>
@@ -2104,27 +2110,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2132,41 +2138,41 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D81" s="4">
         <v>107</v>
@@ -2174,13 +2180,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="4">
         <v>986</v>
@@ -2188,13 +2194,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D83" s="4">
         <v>170</v>
@@ -2202,13 +2208,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D84" s="4">
         <v>163</v>
@@ -2216,13 +2222,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D85" s="4">
         <v>799</v>
@@ -2230,13 +2236,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D86" s="4">
         <v>160</v>
@@ -2244,13 +2250,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="4">
         <v>569</v>
@@ -2258,13 +2264,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="4">
         <v>762</v>
@@ -2272,13 +2278,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D89" s="4">
         <v>211</v>
@@ -2286,41 +2292,41 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D91" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2328,27 +2334,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -2361,13 +2367,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D94">
+  <conditionalFormatting sqref="A2:D69 A71:D94">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:D70">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A99E50-F609-48D8-BC0E-30387BD6D39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C8C9B-C671-4243-BE6F-29E8F6F39168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:D70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1074,27 +1074,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1130,27 +1130,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1175,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1203,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1217,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1245,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1259,7 +1259,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -1270,16 +1270,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1301,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1329,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1340,16 +1340,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1368,13 +1368,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4">
         <v>903</v>
@@ -1399,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1424,13 +1424,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1455,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>27</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1508,13 +1508,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1525,7 +1525,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>29</v>
@@ -1536,24 +1536,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>30</v>
@@ -1567,7 +1567,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1581,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>34</v>
@@ -1595,7 +1595,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>34</v>
@@ -1609,7 +1609,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>34</v>
@@ -1623,7 +1623,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>34</v>
@@ -1634,13 +1634,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D44" s="4">
         <v>471</v>
@@ -1665,7 +1665,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>39</v>
@@ -1679,7 +1679,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1690,27 +1690,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>41</v>
@@ -1735,7 +1735,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>43</v>
@@ -1746,27 +1746,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1774,13 +1774,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D57" s="4">
         <v>745</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="4">
         <v>32</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="4">
         <v>31</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -1900,41 +1900,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1942,27 +1942,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D66" s="4">
         <v>211</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D68" s="4">
         <v>820</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="4">
         <v>819</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="4">
         <v>1394</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D71" s="4">
         <v>395</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="4">
         <v>55</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -2082,13 +2082,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="4">
         <v>994</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D76" s="4">
         <v>695</v>
@@ -2110,27 +2110,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2138,41 +2138,41 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D81" s="4">
         <v>107</v>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
         <v>986</v>
@@ -2194,13 +2194,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D83" s="4">
         <v>170</v>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D84" s="4">
         <v>163</v>
@@ -2222,13 +2222,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4">
         <v>799</v>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86" s="4">
         <v>160</v>
@@ -2250,13 +2250,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D87" s="4">
         <v>569</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D88" s="4">
         <v>762</v>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D89" s="4">
         <v>211</v>
@@ -2292,41 +2292,41 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D91" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2334,27 +2334,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -2367,18 +2367,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="32">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D69 A71:D94">
+  <conditionalFormatting sqref="A2:D50 A52:D94">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:D70">
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80C8C9B-C671-4243-BE6F-29E8F6F39168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E7ED48-6DC2-4F9D-ABFC-2D73DC499238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="174">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
@@ -125,18 +119,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -305,9 +284,6 @@
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -344,24 +320,9 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHO</t>
   </si>
   <si>
-    <t>CLIPE 6/0 COM 50 UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020089</t>
   </si>
   <si>
@@ -371,27 +332,15 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -401,21 +350,12 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -431,18 +371,12 @@
     <t>S020107</t>
   </si>
   <si>
-    <t>574</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -476,27 +410,15 @@
     <t>S030004</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
     <t>S010012</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
   </si>
   <si>
@@ -560,9 +482,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
@@ -582,6 +501,66 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 6/0 - 50 UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - 500 UND</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - BIOLAND</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -689,16 +668,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1032,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1060,13 +1030,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1074,27 +1044,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>145</v>
+        <v>122</v>
+      </c>
+      <c r="D3" s="5">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1102,10 +1072,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1116,13 +1086,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D6" s="4">
         <v>53</v>
@@ -1130,27 +1100,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1161,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1175,7 +1145,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1189,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1203,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1217,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1228,13 +1198,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4">
         <v>58</v>
@@ -1245,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1256,41 +1226,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>102</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -1298,13 +1268,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -1312,13 +1282,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
@@ -1326,41 +1296,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="D22" s="5">
+        <v>916</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4">
         <v>52</v>
@@ -1368,13 +1338,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4">
         <v>904</v>
@@ -1382,13 +1352,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4">
         <v>903</v>
@@ -1396,13 +1366,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4">
         <v>101</v>
@@ -1410,13 +1380,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4">
         <v>100</v>
@@ -1424,27 +1394,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D28" s="5">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D29" s="4">
         <v>1160</v>
@@ -1452,13 +1422,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4">
         <v>103</v>
@@ -1466,13 +1436,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D31" s="4">
         <v>1176</v>
@@ -1480,13 +1450,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D32" s="4">
         <v>1177</v>
@@ -1494,13 +1464,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D33" s="4">
         <v>1178</v>
@@ -1508,13 +1478,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4">
         <v>1179</v>
@@ -1522,41 +1492,41 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4">
         <v>1162</v>
@@ -1564,27 +1534,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4">
         <v>899</v>
@@ -1592,13 +1562,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D40" s="4">
         <v>896</v>
@@ -1606,13 +1576,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D41" s="4">
         <v>900</v>
@@ -1620,13 +1590,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D42" s="4">
         <v>898</v>
@@ -1634,13 +1604,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1648,13 +1618,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D44" s="4">
         <v>471</v>
@@ -1662,13 +1632,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D45" s="4">
         <v>166</v>
@@ -1676,13 +1646,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D46" s="4">
         <v>167</v>
@@ -1690,41 +1660,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="D47" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D49" s="4">
         <v>448</v>
@@ -1732,13 +1702,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D50" s="4">
         <v>80</v>
@@ -1746,13 +1716,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D51" s="4">
         <v>1396</v>
@@ -1760,41 +1730,41 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D54" s="4">
         <v>1164</v>
@@ -1802,13 +1772,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D55" s="4">
         <v>40</v>
@@ -1816,27 +1786,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D57" s="4">
         <v>745</v>
@@ -1844,13 +1814,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D58" s="4">
         <v>33</v>
@@ -1858,13 +1828,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D59" s="4">
         <v>32</v>
@@ -1872,13 +1842,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D60" s="4">
         <v>31</v>
@@ -1886,13 +1856,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
@@ -1900,41 +1870,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>114</v>
+        <v>48</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>116</v>
+        <v>48</v>
+      </c>
+      <c r="D63" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D64" s="4">
         <v>1181</v>
@@ -1942,27 +1912,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>102</v>
+        <v>123</v>
+      </c>
+      <c r="D65" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D66" s="4">
         <v>211</v>
@@ -1970,13 +1940,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D67" s="4">
         <v>1167</v>
@@ -1984,13 +1954,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D68" s="4">
         <v>820</v>
@@ -1998,13 +1968,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D69" s="4">
         <v>819</v>
@@ -2012,13 +1982,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D70" s="4">
         <v>1394</v>
@@ -2026,13 +1996,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D71" s="4">
         <v>395</v>
@@ -2040,13 +2010,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D72" s="4">
         <v>86</v>
@@ -2054,13 +2024,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D73" s="4">
         <v>55</v>
@@ -2068,13 +2038,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -2082,13 +2052,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D75" s="4">
         <v>994</v>
@@ -2096,13 +2066,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D76" s="4">
         <v>695</v>
@@ -2110,69 +2080,69 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
+      </c>
+      <c r="D79" s="5">
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D81" s="4">
         <v>107</v>
@@ -2180,13 +2150,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D82" s="4">
         <v>986</v>
@@ -2194,13 +2164,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D83" s="4">
         <v>170</v>
@@ -2208,13 +2178,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D84" s="4">
         <v>163</v>
@@ -2222,13 +2192,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D85" s="4">
         <v>799</v>
@@ -2236,13 +2206,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D86" s="4">
         <v>160</v>
@@ -2250,13 +2220,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D87" s="4">
         <v>569</v>
@@ -2264,13 +2234,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D88" s="4">
         <v>762</v>
@@ -2278,13 +2248,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D89" s="4">
         <v>211</v>
@@ -2292,72 +2262,72 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="D90" s="5">
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D92" s="4">
-        <v>1</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D94" s="5">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
@@ -2367,18 +2337,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D94">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D94">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E7ED48-6DC2-4F9D-ABFC-2D73DC499238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A2A729-5EFF-4D33-82D2-125A06F0450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="176">
   <si>
     <t>Complemento</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1000,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,105 +1745,105 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="D52" s="4">
-        <v>1416</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1416</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1164</v>
+        <v>81</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D55" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" s="4">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D57" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>114</v>
@@ -1837,12 +1852,12 @@
         <v>144</v>
       </c>
       <c r="D59" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>114</v>
@@ -1851,26 +1866,26 @@
         <v>144</v>
       </c>
       <c r="D60" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="D61" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>114</v>
@@ -1878,13 +1893,13 @@
       <c r="C62" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="5">
-        <v>3</v>
+      <c r="D62" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>114</v>
@@ -1893,82 +1908,82 @@
         <v>48</v>
       </c>
       <c r="D63" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1181</v>
+        <v>48</v>
+      </c>
+      <c r="D64" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="5">
-        <v>874</v>
+        <v>151</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="4">
-        <v>211</v>
+        <v>123</v>
+      </c>
+      <c r="D66" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D67" s="4">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D68" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>117</v>
@@ -1977,68 +1992,68 @@
         <v>52</v>
       </c>
       <c r="D69" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D70" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D71" s="4">
-        <v>395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D72" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>114</v>
@@ -2047,26 +2062,26 @@
         <v>59</v>
       </c>
       <c r="D74" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D75" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>114</v>
@@ -2075,124 +2090,124 @@
         <v>61</v>
       </c>
       <c r="D76" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1457</v>
+        <v>61</v>
+      </c>
+      <c r="D77" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1182</v>
+        <v>103</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" s="5">
-        <v>574</v>
+        <v>63</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D80" s="5">
-        <v>1030</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="4">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D82" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D83" s="4">
-        <v>170</v>
+        <v>986</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>114</v>
@@ -2201,26 +2216,26 @@
         <v>67</v>
       </c>
       <c r="D85" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D86" s="4">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>119</v>
@@ -2229,12 +2244,12 @@
         <v>70</v>
       </c>
       <c r="D87" s="4">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>119</v>
@@ -2243,107 +2258,126 @@
         <v>70</v>
       </c>
       <c r="D88" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D89" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D90" s="5">
-        <v>202</v>
+        <v>74</v>
+      </c>
+      <c r="D90" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D91" s="5">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1419</v>
+        <v>107</v>
+      </c>
+      <c r="D92" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1419</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" s="4" t="s">
+      <c r="B95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D95" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
-      <sortCondition ref="A1:A94"/>
+  <autoFilter ref="A1:D95" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
+      <sortCondition ref="A1:A95"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="32">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D94">
+  <conditionalFormatting sqref="A2:D51 A53:D95">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:D52">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A2A729-5EFF-4D33-82D2-125A06F0450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B53E54-4F77-4476-BB02-505F86B367B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -674,16 +674,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -2366,18 +2357,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D51 A53:D95">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D95">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:D52">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B53E54-4F77-4476-BB02-505F86B367B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10B755E-DDD2-4EB3-8953-0AC7A98709D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -467,9 +467,6 @@
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>S050011</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>115</v>
@@ -1073,7 +1073,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="5">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,13 +1120,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>114</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D17" s="5">
         <v>1184</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>115</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>115</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>114</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>114</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>114</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>114</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>114</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>115</v>
@@ -1736,13 +1736,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D52" s="4">
         <v>116</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>114</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>115</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>114</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" s="4">
         <v>32</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" s="4">
         <v>31</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" s="4">
         <v>1181</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>114</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>117</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>114</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>114</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>114</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>117</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>114</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>114</v>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10B755E-DDD2-4EB3-8953-0AC7A98709D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36F6AF-2FFA-4020-B97B-3E83EBCDA3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -674,7 +674,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1009,7 +1018,7 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1460,7 @@
         <v>111</v>
       </c>
       <c r="D31" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,7 +1474,7 @@
         <v>111</v>
       </c>
       <c r="D32" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,7 +1488,7 @@
         <v>111</v>
       </c>
       <c r="D33" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1493,7 +1502,7 @@
         <v>111</v>
       </c>
       <c r="D34" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,13 +2366,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95">
+  <conditionalFormatting sqref="A2:D30 A35:D95">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:D34">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36F6AF-2FFA-4020-B97B-3E83EBCDA3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074FD508-76A8-468C-9022-31F85ACC0F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="177">
   <si>
     <t>Complemento</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 0,6X25MM</t>
   </si>
 </sst>
 </file>
@@ -674,16 +677,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1015,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,119 +1081,119 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1443</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="D7" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1208</v>
+        <v>92</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4">
-        <v>809</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4">
-        <v>103</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>114</v>
@@ -1208,82 +1202,82 @@
         <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D15" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>1453</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1184</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1453</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
+        <v>155</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>114</v>
@@ -1292,12 +1286,12 @@
         <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>114</v>
@@ -1306,68 +1300,68 @@
         <v>17</v>
       </c>
       <c r="D20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>128</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="5">
-        <v>916</v>
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4">
-        <v>52</v>
+        <v>94</v>
+      </c>
+      <c r="D23" s="5">
+        <v>916</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>114</v>
@@ -1376,26 +1370,26 @@
         <v>79</v>
       </c>
       <c r="D25" s="4">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D26" s="4">
-        <v>101</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>117</v>
@@ -1404,68 +1398,68 @@
         <v>23</v>
       </c>
       <c r="D27" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="5">
-        <v>874</v>
+        <v>23</v>
+      </c>
+      <c r="D28" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1160</v>
+        <v>124</v>
+      </c>
+      <c r="D29" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4">
-        <v>103</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4">
-        <v>1175</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>114</v>
@@ -1474,12 +1468,12 @@
         <v>111</v>
       </c>
       <c r="D32" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>114</v>
@@ -1488,12 +1482,12 @@
         <v>111</v>
       </c>
       <c r="D33" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>114</v>
@@ -1502,82 +1496,82 @@
         <v>111</v>
       </c>
       <c r="D34" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D35" s="4">
-        <v>1436</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="5">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1436</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1162</v>
+        <v>96</v>
+      </c>
+      <c r="D37" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>114</v>
@@ -1586,12 +1580,12 @@
         <v>30</v>
       </c>
       <c r="D40" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>114</v>
@@ -1600,12 +1594,12 @@
         <v>30</v>
       </c>
       <c r="D41" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>114</v>
@@ -1614,54 +1608,54 @@
         <v>30</v>
       </c>
       <c r="D42" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D43" s="4">
-        <v>750</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D44" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D45" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>114</v>
@@ -1670,194 +1664,194 @@
         <v>35</v>
       </c>
       <c r="D46" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="5">
-        <v>272</v>
+        <v>35</v>
+      </c>
+      <c r="D47" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1157</v>
+        <v>97</v>
+      </c>
+      <c r="D48" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D49" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D50" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="4">
-        <v>1396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="D52" s="4">
-        <v>116</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="D53" s="4">
-        <v>1416</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1416</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1164</v>
+        <v>81</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D56" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57" s="4">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D58" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D59" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>114</v>
@@ -1866,12 +1860,12 @@
         <v>143</v>
       </c>
       <c r="D60" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>114</v>
@@ -1880,26 +1874,26 @@
         <v>143</v>
       </c>
       <c r="D61" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="D62" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>114</v>
@@ -1907,13 +1901,13 @@
       <c r="C63" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="5">
-        <v>3</v>
+      <c r="D63" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>114</v>
@@ -1922,82 +1916,82 @@
         <v>48</v>
       </c>
       <c r="D64" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1181</v>
+        <v>48</v>
+      </c>
+      <c r="D65" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="5">
-        <v>874</v>
+        <v>150</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="4">
-        <v>211</v>
+        <v>123</v>
+      </c>
+      <c r="D67" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D68" s="4">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D69" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>117</v>
@@ -2006,68 +2000,68 @@
         <v>52</v>
       </c>
       <c r="D70" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D71" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D72" s="4">
-        <v>395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D73" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D74" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>114</v>
@@ -2076,26 +2070,26 @@
         <v>59</v>
       </c>
       <c r="D75" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D76" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>114</v>
@@ -2104,124 +2098,124 @@
         <v>61</v>
       </c>
       <c r="D77" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1457</v>
+        <v>61</v>
+      </c>
+      <c r="D78" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1182</v>
+        <v>103</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="5">
-        <v>574</v>
+        <v>63</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D81" s="5">
-        <v>1030</v>
+        <v>574</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="4">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D83" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D84" s="4">
-        <v>170</v>
+        <v>986</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>114</v>
@@ -2230,26 +2224,26 @@
         <v>67</v>
       </c>
       <c r="D86" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D87" s="4">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>119</v>
@@ -2258,12 +2252,12 @@
         <v>70</v>
       </c>
       <c r="D88" s="4">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>119</v>
@@ -2272,112 +2266,121 @@
         <v>70</v>
       </c>
       <c r="D89" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D90" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="5">
-        <v>202</v>
+        <v>74</v>
+      </c>
+      <c r="D91" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D92" s="5">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" s="4">
-        <v>1419</v>
+        <v>107</v>
+      </c>
+      <c r="D93" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1419</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="B96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D96" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D95" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
-      <sortCondition ref="A1:A95"/>
+  <autoFilter ref="A1:D96" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
+      <sortCondition ref="A1:A96"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D30 A35:D95">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D96">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:D34">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074FD508-76A8-468C-9022-31F85ACC0F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312BC78-51F6-479D-B174-8E5DD590AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -1011,9 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1067,7 +1065,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>115</v>
@@ -1076,12 +1074,12 @@
         <v>77</v>
       </c>
       <c r="D4" s="5">
-        <v>1505</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>115</v>
@@ -1090,7 +1088,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="5">
-        <v>1443</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,63 +1513,63 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1436</v>
+        <v>96</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="5">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>114</v>
@@ -1580,12 +1578,12 @@
         <v>30</v>
       </c>
       <c r="D40" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>114</v>
@@ -1594,12 +1592,12 @@
         <v>30</v>
       </c>
       <c r="D41" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>114</v>
@@ -1608,54 +1606,54 @@
         <v>30</v>
       </c>
       <c r="D42" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D43" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D44" s="4">
-        <v>750</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D45" s="4">
-        <v>471</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>114</v>
@@ -1664,194 +1662,194 @@
         <v>35</v>
       </c>
       <c r="D46" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="4">
-        <v>167</v>
+        <v>97</v>
+      </c>
+      <c r="D47" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="5">
-        <v>272</v>
+        <v>112</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1157</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D49" s="4">
-        <v>1157</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D50" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D51" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="D52" s="4">
-        <v>1396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="D53" s="4">
-        <v>116</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1416</v>
+        <v>81</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="D56" s="4">
-        <v>1164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D57" s="4">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D59" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>114</v>
@@ -1860,12 +1858,12 @@
         <v>143</v>
       </c>
       <c r="D60" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>114</v>
@@ -1874,26 +1872,26 @@
         <v>143</v>
       </c>
       <c r="D61" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="D62" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>114</v>
@@ -1901,13 +1899,13 @@
       <c r="C63" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="4">
-        <v>2</v>
+      <c r="D63" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>114</v>
@@ -1916,82 +1914,82 @@
         <v>48</v>
       </c>
       <c r="D64" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="5">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1181</v>
+        <v>123</v>
+      </c>
+      <c r="D66" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="5">
-        <v>874</v>
+        <v>50</v>
+      </c>
+      <c r="D67" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D68" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="D69" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>117</v>
@@ -2000,68 +1998,68 @@
         <v>52</v>
       </c>
       <c r="D70" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D71" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D72" s="4">
-        <v>1394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D73" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D74" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>114</v>
@@ -2070,26 +2068,26 @@
         <v>59</v>
       </c>
       <c r="D75" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D76" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>114</v>
@@ -2098,124 +2096,124 @@
         <v>61</v>
       </c>
       <c r="D77" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="4">
-        <v>695</v>
+        <v>103</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="5">
-        <v>1457</v>
+        <v>63</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1182</v>
+        <v>109</v>
+      </c>
+      <c r="D80" s="5">
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D81" s="5">
-        <v>574</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1030</v>
+        <v>65</v>
+      </c>
+      <c r="D82" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D83" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D84" s="4">
-        <v>986</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>114</v>
@@ -2224,21 +2222,21 @@
         <v>67</v>
       </c>
       <c r="D86" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D87" s="4">
-        <v>799</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/RN_csoservi_cservico_csala.xlsx
+++ b/pages/RN_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312BC78-51F6-479D-B174-8E5DD590AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF433FD6-3E2F-4F46-9573-918E40037544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -296,15 +296,9 @@
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
-    <t>S030001</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
-    <t>S030005</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 50ML - 50ML</t>
   </si>
   <si>
@@ -407,9 +401,6 @@
     <t>ADOÇANTE - 100ML</t>
   </si>
   <si>
-    <t>S030004</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
@@ -570,6 +561,15 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 0,6X25MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300001 </t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1011,7 +1020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1026,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1040,10 +1051,10 @@
         <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1051,13 +1062,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="D3" s="5">
         <v>118</v>
@@ -1065,10 +1076,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>77</v>
@@ -1079,10 +1090,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>77</v>
@@ -1093,10 +1104,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1110,7 +1121,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>76</v>
@@ -1121,13 +1132,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1135,13 +1146,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1152,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1166,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1180,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1194,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1208,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1219,16 +1230,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1247,10 +1258,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -1261,13 +1272,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D18" s="5">
         <v>1184</v>
@@ -1278,7 +1289,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1292,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1303,10 +1314,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1317,27 +1328,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="5">
         <v>916</v>
@@ -1348,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
@@ -1362,7 +1373,7 @@
         <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>79</v>
@@ -1376,7 +1387,7 @@
         <v>80</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>79</v>
@@ -1390,7 +1401,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>23</v>
@@ -1401,10 +1412,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
@@ -1415,13 +1426,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D29" s="5">
         <v>874</v>
@@ -1429,13 +1440,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" s="4">
         <v>1160</v>
@@ -1446,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>25</v>
@@ -1457,13 +1468,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4">
         <v>1175</v>
@@ -1471,13 +1482,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1485,13 +1496,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1499,13 +1510,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1513,13 +1524,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D36" s="5">
         <v>12</v>
@@ -1527,10 +1538,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>27</v>
@@ -1541,10 +1552,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>28</v>
@@ -1558,7 +1569,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1572,7 +1583,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>30</v>
@@ -1586,7 +1597,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>30</v>
@@ -1600,7 +1611,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>30</v>
@@ -1611,13 +1622,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1625,13 +1636,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" s="4">
         <v>471</v>
@@ -1642,7 +1653,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>35</v>
@@ -1656,7 +1667,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>35</v>
@@ -1667,13 +1678,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5">
         <v>272</v>
@@ -1681,13 +1692,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" s="4">
         <v>1157</v>
@@ -1695,10 +1706,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>37</v>
@@ -1712,7 +1723,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>39</v>
@@ -1723,10 +1734,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>40</v>
@@ -1737,13 +1748,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D52" s="4">
         <v>116</v>
@@ -1751,10 +1762,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>41</v>
@@ -1765,27 +1776,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4">
         <v>1164</v>
@@ -1796,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>43</v>
@@ -1807,10 +1818,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>44</v>
@@ -1824,7 +1835,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>46</v>
@@ -1835,13 +1846,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D59" s="4">
         <v>33</v>
@@ -1849,13 +1860,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D60" s="4">
         <v>32</v>
@@ -1863,13 +1874,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D61" s="4">
         <v>31</v>
@@ -1880,7 +1891,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>48</v>
@@ -1891,10 +1902,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>48</v>
@@ -1905,10 +1916,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>48</v>
@@ -1919,13 +1930,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D65" s="4">
         <v>1181</v>
@@ -1933,13 +1944,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D66" s="5">
         <v>874</v>
@@ -1950,7 +1961,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>50</v>
@@ -1961,13 +1972,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D68" s="4">
         <v>1167</v>
@@ -1978,7 +1989,7 @@
         <v>51</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>52</v>
@@ -1992,7 +2003,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>52</v>
@@ -2003,10 +2014,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>54</v>
@@ -2020,7 +2031,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>56</v>
@@ -2034,7 +2045,7 @@
         <v>57</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>58</v>
@@ -2045,10 +2056,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>59</v>
@@ -2059,10 +2070,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>59</v>
@@ -2076,7 +2087,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>61</v>
@@ -2090,7 +2101,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>61</v>
@@ -2101,13 +2112,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D78" s="5">
         <v>1457</v>
@@ -2115,10 +2126,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>63</v>
@@ -2129,13 +2140,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D80" s="5">
         <v>574</v>
@@ -2143,13 +2154,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D81" s="5">
         <v>1030</v>
@@ -2160,7 +2171,7 @@
         <v>64</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>65</v>
@@ -2171,10 +2182,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>82</v>
@@ -2188,7 +2199,7 @@
         <v>66</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>67</v>
@@ -2202,7 +2213,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>67</v>
@@ -2216,7 +2227,7 @@
         <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>67</v>
@@ -2227,10 +2238,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>26</v>
@@ -2241,10 +2252,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>70</v>
@@ -2258,7 +2269,7 @@
         <v>71</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>70</v>
@@ -2272,7 +2283,7 @@
         <v>72</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>70</v>
@@ -2286,7 +2297,7 @@
         <v>73</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>74</v>
@@ -2297,13 +2308,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D92" s="5">
         <v>202</v>
@@ -2311,13 +2322,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D93" s="5">
         <v>2</v>
@@ -2325,10 +2336,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>83</v>
@@ -2339,27 +2350,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D96" s="5">
         <v>1458</v>
@@ -2372,13 +2383,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="34">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D96">
+  <conditionalFormatting sqref="A2:D14 A16:D96">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:D15">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
